--- a/iecodebook_chapter1.xlsx
+++ b/iecodebook_chapter1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F07FF-0DF5-40F4-815F-40881EA9EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F193A73-BB21-4EEB-A589-102F663650BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,25 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="348">
   <si>
     <t>name</t>
   </si>
@@ -168,6 +181,12 @@
     <t>emp_ppal</t>
   </si>
   <si>
+    <t>hh_members</t>
+  </si>
+  <si>
+    <t>hh_kids</t>
+  </si>
+  <si>
     <t>p3o</t>
   </si>
   <si>
@@ -897,15 +916,6 @@
     <t>Urban/rural identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight </t>
-  </si>
-  <si>
-    <t>Economically active identifier</t>
-  </si>
-  <si>
-    <t>Economically active categories</t>
-  </si>
-  <si>
     <t>Economically active. Extended categories</t>
   </si>
   <si>
@@ -936,10 +946,16 @@
     <t>Did you move from your hometown to keep or maintain your current job?</t>
   </si>
   <si>
+    <t>Respondent identificator</t>
+  </si>
+  <si>
     <t>Household identificator</t>
   </si>
   <si>
-    <t>Respondent identificator</t>
+    <t>Number of household members</t>
+  </si>
+  <si>
+    <t>Presence of kids in the household</t>
   </si>
   <si>
     <t>(105=1)(110=2)(115=3)(119=4)</t>
@@ -1045,6 +1061,24 @@
   </si>
   <si>
     <t>Economically active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural </t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Economically active. Identifier</t>
+  </si>
+  <si>
+    <t>Economically active. Categories</t>
+  </si>
+  <si>
+    <t>Weight variable</t>
+  </si>
+  <si>
+    <t>(9=.d)</t>
   </si>
 </sst>
 </file>
@@ -1409,23 +1443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1445,16 +1479,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1491,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1503,10 +1537,10 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1520,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1532,7 +1566,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1540,13 +1574,16 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1558,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1575,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1587,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1604,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1616,16 +1653,16 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1645,7 +1682,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1662,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1674,10 +1711,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1691,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1703,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1712,7 +1749,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1720,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1732,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1749,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1761,7 +1798,7 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1770,7 +1807,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1778,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1790,7 +1827,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1807,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1819,7 +1856,7 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1827,8 +1864,8 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
+      <c r="I14" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1836,19 +1873,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1857,7 +1894,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1865,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1877,10 +1914,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1894,7 +1931,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1906,7 +1943,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1915,7 +1952,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1923,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1935,7 +1972,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1952,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1964,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1981,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1993,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2010,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2022,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2039,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2051,7 +2088,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2068,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2080,7 +2117,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2097,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2109,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2126,7 +2163,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2138,7 +2175,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2155,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2167,10 +2204,10 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -2184,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2196,7 +2233,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -2213,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2225,7 +2262,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -2242,36 +2279,36 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
+      <c r="D29" t="s">
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>309</v>
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="B30" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -2283,13 +2320,13 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -2300,36 +2337,36 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
-        <v>20</v>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>304</v>
+      <c r="B32" t="s">
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2341,15 +2378,73 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2360,80 +2455,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2445,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2453,10 +2550,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2464,10 +2561,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2475,10 +2572,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2486,10 +2583,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2497,10 +2594,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2508,10 +2605,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2522,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2533,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2541,10 +2638,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2555,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2566,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2574,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2585,10 +2682,10 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2596,10 +2693,10 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2607,10 +2704,10 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2618,10 +2715,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2629,10 +2726,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2640,10 +2737,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2651,21 +2748,21 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>329</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2673,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>330</v>
@@ -2684,7 +2781,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>331</v>
@@ -2695,20 +2792,20 @@
         <v>24</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2717,7 +2814,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>334</v>
@@ -2728,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>335</v>
@@ -2739,54 +2836,54 @@
         <v>26</v>
       </c>
       <c r="B34" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
+      <c r="A35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>337</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2794,10 +2891,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2805,10 +2902,43 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2820,9 +2950,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2843,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2851,10 +2988,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2862,10 +2999,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2876,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2887,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2895,10 +3032,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2909,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2920,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2928,10 +3065,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2939,10 +3076,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2950,10 +3087,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2964,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2975,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2983,10 +3120,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2994,10 +3131,10 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3005,10 +3142,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3016,10 +3153,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3027,10 +3164,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3038,10 +3175,10 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3052,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3063,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3071,10 +3208,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3082,10 +3219,10 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3093,10 +3230,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3104,10 +3241,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3115,10 +3252,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3126,10 +3263,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3137,10 +3274,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3148,10 +3285,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3159,10 +3296,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3173,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3184,7 +3321,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3192,10 +3329,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3203,10 +3340,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3214,10 +3351,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3225,10 +3362,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3236,10 +3373,10 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3247,10 +3384,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3261,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3272,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3280,10 +3417,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3294,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3302,10 +3439,10 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3313,10 +3450,10 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -3324,10 +3461,10 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -3335,10 +3472,10 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -3346,10 +3483,10 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3357,10 +3494,10 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3368,10 +3505,10 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3379,10 +3516,10 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -3390,10 +3527,10 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -3401,10 +3538,10 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -3412,10 +3549,10 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3423,10 +3560,10 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -3434,10 +3571,10 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3445,10 +3582,10 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -3456,10 +3593,10 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3467,10 +3604,10 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -3478,10 +3615,10 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -3489,10 +3626,10 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -3500,10 +3637,10 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -3511,10 +3648,10 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -3522,10 +3659,10 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -3533,10 +3670,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -3544,10 +3681,10 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -3555,10 +3692,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -3566,10 +3703,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -3577,10 +3714,10 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -3588,10 +3725,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -3599,10 +3736,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -3610,10 +3747,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -3621,10 +3758,10 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -3632,10 +3769,10 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -3646,7 +3783,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -3657,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -3665,10 +3802,10 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -3676,10 +3813,10 @@
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -3687,10 +3824,10 @@
         <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -3698,10 +3835,10 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -3712,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3723,7 +3860,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -3731,10 +3868,10 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -3742,10 +3879,10 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -3753,10 +3890,10 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -3764,10 +3901,10 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -3775,10 +3912,10 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -3786,10 +3923,10 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -3797,10 +3934,10 @@
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -3808,10 +3945,10 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -3819,10 +3956,10 @@
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -3830,10 +3967,10 @@
         <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -3841,10 +3978,10 @@
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3852,10 +3989,10 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3863,10 +4000,10 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -3874,10 +4011,10 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -3885,10 +4022,10 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -3896,10 +4033,10 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -3907,10 +4044,10 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -3918,10 +4055,10 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -3929,10 +4066,10 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -3940,10 +4077,10 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -3951,10 +4088,10 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -3962,10 +4099,10 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3973,10 +4110,10 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3984,10 +4121,10 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -3995,10 +4132,10 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -4006,54 +4143,54 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -4061,10 +4198,10 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -4075,7 +4212,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -4086,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -4094,10 +4231,10 @@
         <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -4105,10 +4242,10 @@
         <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -4116,10 +4253,10 @@
         <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -4127,10 +4264,10 @@
         <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -4138,10 +4275,10 @@
         <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -4152,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -4163,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -4171,10 +4308,10 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -4182,10 +4319,10 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -4193,10 +4330,10 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -4204,10 +4341,10 @@
         <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C126" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -4218,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -4229,7 +4366,7 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -4237,10 +4374,10 @@
         <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -4248,10 +4385,10 @@
         <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -4259,10 +4396,10 @@
         <v>40</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -4270,10 +4407,10 @@
         <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C132" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -4281,10 +4418,10 @@
         <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -4292,10 +4429,10 @@
         <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -4306,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -4317,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -4325,10 +4462,10 @@
         <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C137" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -4336,10 +4473,10 @@
         <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -4347,10 +4484,10 @@
         <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -4361,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -4372,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -4380,10 +4517,10 @@
         <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -4391,10 +4528,10 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -4402,10 +4539,10 @@
         <v>42</v>
       </c>
       <c r="B144" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -4413,10 +4550,10 @@
         <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C145" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -4424,10 +4561,10 @@
         <v>42</v>
       </c>
       <c r="B146" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C146" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -4435,10 +4572,10 @@
         <v>42</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C147" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -4446,10 +4583,10 @@
         <v>42</v>
       </c>
       <c r="B148" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C148" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -4457,10 +4594,10 @@
         <v>42</v>
       </c>
       <c r="B149" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -4468,10 +4605,10 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -4479,10 +4616,10 @@
         <v>42</v>
       </c>
       <c r="B151" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -4493,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -4504,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -4512,10 +4649,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C154" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -4523,10 +4660,10 @@
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C155" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -4534,10 +4671,10 @@
         <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C156" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -4545,10 +4682,10 @@
         <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C157" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -4556,10 +4693,10 @@
         <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -4567,10 +4704,10 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C159" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -4578,10 +4715,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C160" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -4589,10 +4726,10 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C161" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -4600,10 +4737,10 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C162" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -4611,10 +4748,10 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -4622,10 +4759,10 @@
         <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4633,10 +4770,10 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4644,10 +4781,10 @@
         <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C166" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4655,10 +4792,10 @@
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C167" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -4666,10 +4803,10 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C168" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -4677,10 +4814,10 @@
         <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C169" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -4688,10 +4825,10 @@
         <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C170" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -4699,10 +4836,10 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -4710,10 +4847,10 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C172" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -4721,10 +4858,10 @@
         <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C173" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -4735,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -4743,10 +4880,10 @@
         <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C175" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -4757,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -4765,10 +4902,10 @@
         <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C177" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -4776,10 +4913,10 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -4787,10 +4924,10 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -4801,7 +4938,7 @@
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -4809,10 +4946,10 @@
         <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C181" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/iecodebook_chapter1.xlsx
+++ b/iecodebook_chapter1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F193A73-BB21-4EEB-A589-102F663650BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30162D78-972D-4E8A-BFB5-220573A195D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="348">
   <si>
     <t>name</t>
   </si>
@@ -1085,7 +1085,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1445,11 +1445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.6328125" bestFit="1" customWidth="1"/>
@@ -1462,7 +1462,7 @@
     <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2457,84 +2457,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
@@ -2954,14 +2954,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>51</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>46</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>46</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>46</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>46</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>34</v>
       </c>

--- a/iecodebook_chapter1.xlsx
+++ b/iecodebook_chapter1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30162D78-972D-4E8A-BFB5-220573A195D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50913F5-DE0F-44B5-8AD7-BAC6560110FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="391">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,12 @@
     <t>rama</t>
   </si>
   <si>
+    <t>dur9c</t>
+  </si>
+  <si>
+    <t>emple7c</t>
+  </si>
+  <si>
     <t>rama_est1</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>hij5c</t>
   </si>
   <si>
+    <t>hrsocup</t>
+  </si>
+  <si>
     <t>ingocup</t>
   </si>
   <si>
@@ -181,10 +190,10 @@
     <t>emp_ppal</t>
   </si>
   <si>
-    <t>hh_members</t>
-  </si>
-  <si>
-    <t>hh_kids</t>
+    <t>tue_ppal</t>
+  </si>
+  <si>
+    <t>mh_col</t>
   </si>
   <si>
     <t>p3o</t>
@@ -259,6 +268,12 @@
     <t>Clasificación de la población ocupada por sector de actividad económica</t>
   </si>
   <si>
+    <t>Clasificación de la población ocupada por la duración de la jornada</t>
+  </si>
+  <si>
+    <t>Clasificación de la población ocupada por número de trabajadores</t>
+  </si>
+  <si>
     <t>Clasificación de la población ocupada según sector de actividad-Totales</t>
   </si>
   <si>
@@ -271,6 +286,9 @@
     <t>Clasificación de la población femenina de 14 años y más por número de hijos</t>
   </si>
   <si>
+    <t>Horas trabajadas a la semana</t>
+  </si>
+  <si>
     <t>Ingreso mensual</t>
   </si>
   <si>
@@ -280,6 +298,12 @@
     <t>Clasificación de empleos formales e informales de la primera actividad</t>
   </si>
   <si>
+    <t>Tipo de unidad económica del trabajo principal</t>
+  </si>
+  <si>
+    <t>Columnas de la matriz Hussmanns del trabajo principal</t>
+  </si>
+  <si>
     <t>Para conseguir o conservar este trabajo, ¿ ... se vio obligado a cambiar de ciud</t>
   </si>
   <si>
@@ -406,6 +430,15 @@
     <t>105</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Unspecified activities</t>
+  </si>
+  <si>
     <t>Residente habitual</t>
   </si>
   <si>
@@ -490,6 +523,33 @@
     <t>No Sabe</t>
   </si>
   <si>
+    <t>Ausentes temporales con vínculo laboral</t>
+  </si>
+  <si>
+    <t>Menos de 15 horas</t>
+  </si>
+  <si>
+    <t>De 15 a 24 horas</t>
+  </si>
+  <si>
+    <t>De 25 a 34 horas</t>
+  </si>
+  <si>
+    <t>De 35 a 39 horas</t>
+  </si>
+  <si>
+    <t>De 40 a 48 horas</t>
+  </si>
+  <si>
+    <t>De 49 a 56 horas</t>
+  </si>
+  <si>
+    <t>Más de 56 horas</t>
+  </si>
+  <si>
+    <t>No especificado</t>
+  </si>
+  <si>
     <t>Menor de doce años</t>
   </si>
   <si>
@@ -520,6 +580,24 @@
     <t>Empleo formal</t>
   </si>
   <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>De 2 a 5 personas</t>
+  </si>
+  <si>
+    <t>De 6 a 10 personas</t>
+  </si>
+  <si>
+    <t>De 11 a 15 personas</t>
+  </si>
+  <si>
+    <t>De 16 a 50 personas</t>
+  </si>
+  <si>
+    <t>De 51 y más personas</t>
+  </si>
+  <si>
     <t>Aguascalientes</t>
   </si>
   <si>
@@ -628,7 +706,34 @@
     <t>De 6 hijos y más</t>
   </si>
   <si>
-    <t>No especificado</t>
+    <t>Trabajadores subordinados y remunerados ? Asalariados INFORMALES</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Asalariados FORMALES</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Con percepciones no salariales INFORMA</t>
+  </si>
+  <si>
+    <t>Trabajadores subordinados y remunerados ? Con percepciones no salariales FORMALE</t>
+  </si>
+  <si>
+    <t>Empleadores INFORMAL</t>
+  </si>
+  <si>
+    <t>Empleadores FORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores por cuenta propia INFORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores por cuenta propia FORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores no Remunerados INFORMAL</t>
+  </si>
+  <si>
+    <t>Trabajadores no Remunerados FORMAL</t>
   </si>
   <si>
     <t>Es menor o es hombre o es mujer sin hijos</t>
@@ -874,12 +979,138 @@
     <t>Localidades menores de 2 500 habitantes</t>
   </si>
   <si>
+    <t>Sector informal</t>
+  </si>
+  <si>
+    <t>Fuera del sector informal</t>
+  </si>
+  <si>
     <t>Urbano</t>
   </si>
   <si>
     <t>Rural</t>
   </si>
   <si>
+    <t>Free union</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Doesn't know</t>
+  </si>
+  <si>
+    <t>Does not apply</t>
+  </si>
+  <si>
+    <t>Informal job</t>
+  </si>
+  <si>
+    <t>Formal job</t>
+  </si>
+  <si>
+    <t>Preschool</t>
+  </si>
+  <si>
+    <t>Primary school</t>
+  </si>
+  <si>
+    <t>Secondary school</t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t>Teacher training college</t>
+  </si>
+  <si>
+    <t>Technical career</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
+  </si>
+  <si>
+    <t>Ph.D. degree</t>
+  </si>
+  <si>
+    <t>More than 100,000 inhabitants</t>
+  </si>
+  <si>
+    <t>Between 15,000 and 99,999 inhabitants</t>
+  </si>
+  <si>
+    <t>Between 2,500 and 14,999 inhabitants</t>
+  </si>
+  <si>
+    <t>Less than 2,500 inhabitants</t>
+  </si>
+  <si>
+    <t>1st quarter of 2005</t>
+  </si>
+  <si>
+    <t>1st quarter of 2010</t>
+  </si>
+  <si>
+    <t>1st quarter of 2015</t>
+  </si>
+  <si>
+    <t>1st quarter of 2019</t>
+  </si>
+  <si>
+    <t>Yes, I moved from my hometown</t>
+  </si>
+  <si>
+    <t>No, I didn't move from my hometown</t>
+  </si>
+  <si>
+    <t>Non-economically active</t>
+  </si>
+  <si>
+    <t>Economically active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural </t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t>(105=1)(110=2)(115=3)(119=4)</t>
+  </si>
+  <si>
+    <t>(1=1)(2=0)</t>
+  </si>
+  <si>
+    <t>(99=.d)</t>
+  </si>
+  <si>
+    <t>(9=.d)</t>
+  </si>
+  <si>
+    <t>(0=.n)(1=1)(2=0)</t>
+  </si>
+  <si>
+    <t>(0=.n)</t>
+  </si>
+  <si>
     <t>Municipality</t>
   </si>
   <si>
@@ -916,6 +1147,15 @@
     <t>Urban/rural identifier</t>
   </si>
   <si>
+    <t>Weight variable</t>
+  </si>
+  <si>
+    <t>Economically active. Identifier</t>
+  </si>
+  <si>
+    <t>Economically active. Categories</t>
+  </si>
+  <si>
     <t>Economically active. Extended categories</t>
   </si>
   <si>
@@ -952,143 +1192,37 @@
     <t>Household identificator</t>
   </si>
   <si>
-    <t>Number of household members</t>
-  </si>
-  <si>
-    <t>Presence of kids in the household</t>
-  </si>
-  <si>
-    <t>(105=1)(110=2)(115=3)(119=4)</t>
-  </si>
-  <si>
-    <t>(1=1)(2=0)</t>
-  </si>
-  <si>
-    <t>(99=.d)</t>
-  </si>
-  <si>
-    <t>(0=.n)(1=1)(2=0)</t>
-  </si>
-  <si>
-    <t>Free union</t>
-  </si>
-  <si>
-    <t>Separated</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>Widowed</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Doesn't know</t>
-  </si>
-  <si>
-    <t>Does not apply</t>
-  </si>
-  <si>
-    <t>Informal job</t>
-  </si>
-  <si>
-    <t>Formal job</t>
-  </si>
-  <si>
-    <t>Preschool</t>
-  </si>
-  <si>
-    <t>Primary school</t>
-  </si>
-  <si>
-    <t>Secondary school</t>
-  </si>
-  <si>
-    <t>High school</t>
-  </si>
-  <si>
-    <t>Teacher training college</t>
-  </si>
-  <si>
-    <t>Technical career</t>
-  </si>
-  <si>
-    <t>Bachelor's degree</t>
-  </si>
-  <si>
-    <t>Master's degree</t>
-  </si>
-  <si>
-    <t>Ph.D. degree</t>
-  </si>
-  <si>
-    <t>More than 100,000 inhabitants</t>
-  </si>
-  <si>
-    <t>Between 15,000 and 99,999 inhabitants</t>
-  </si>
-  <si>
-    <t>Between 2,500 and 14,999 inhabitants</t>
-  </si>
-  <si>
-    <t>Less than 2,500 inhabitants</t>
-  </si>
-  <si>
-    <t>1st quarter of 2005</t>
-  </si>
-  <si>
-    <t>1st quarter of 2010</t>
-  </si>
-  <si>
-    <t>1st quarter of 2015</t>
-  </si>
-  <si>
-    <t>1st quarter of 2019</t>
-  </si>
-  <si>
-    <t>Yes, I moved from my hometown</t>
-  </si>
-  <si>
-    <t>No, I didn't move from my hometown</t>
-  </si>
-  <si>
-    <t>Non-economically active</t>
-  </si>
-  <si>
-    <t>Economically active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural </t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Economically active. Identifier</t>
-  </si>
-  <si>
-    <t>Economically active. Categories</t>
-  </si>
-  <si>
-    <t>Weight variable</t>
-  </si>
-  <si>
-    <t>(9=.d)</t>
+    <t>Duration of the daily work shift</t>
+  </si>
+  <si>
+    <t>Number of workers at your job</t>
+  </si>
+  <si>
+    <t>Hours worked per week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of economic unit. Formal or informal </t>
+  </si>
+  <si>
+    <t>Hussmans matrix to measure informality</t>
+  </si>
+  <si>
+    <t>What is the main economic activity of the company were you work?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1117,18 +1251,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,26 +1578,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1479,19 +1614,19 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1520,12 +1655,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>281</v>
+      <c r="B3" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1537,10 +1672,10 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1549,12 +1684,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>282</v>
+      <c r="B4" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1566,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1578,24 +1713,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>283</v>
+      <c r="B5" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1607,12 +1742,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>284</v>
+      <c r="B6" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1624,7 +1759,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1636,36 +1771,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>285</v>
+      <c r="B7" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1694,12 +1829,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>286</v>
+      <c r="B9" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1711,10 +1846,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1723,12 +1858,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>287</v>
+      <c r="B10" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1740,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1748,16 +1883,16 @@
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>288</v>
+      <c r="B11" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1769,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1781,24 +1916,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>289</v>
+      <c r="B12" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1806,16 +1941,16 @@
       <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>290</v>
+      <c r="B13" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1827,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1839,24 +1974,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>291</v>
+      <c r="B14" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1864,28 +1999,28 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>292</v>
+      <c r="B15" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1893,16 +2028,16 @@
       <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>346</v>
+      <c r="B16" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1914,10 +2049,10 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1926,24 +2061,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>344</v>
+      <c r="B17" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1951,16 +2086,16 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>345</v>
+      <c r="B18" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1972,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1984,12 +2119,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>293</v>
+      <c r="B19" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -2001,7 +2136,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -2013,12 +2148,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>294</v>
+      <c r="B20" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -2030,7 +2165,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2042,12 +2177,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>295</v>
+      <c r="B21" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2059,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2071,24 +2206,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>296</v>
+      <c r="B22" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2100,12 +2232,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>297</v>
+      <c r="B23" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2117,7 +2249,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2129,24 +2261,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>298</v>
+      <c r="B24" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2154,16 +2286,16 @@
       <c r="H24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>290</v>
+      <c r="B25" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2175,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2187,12 +2319,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>299</v>
+      <c r="B26" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2204,24 +2336,24 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>300</v>
+      <c r="B27" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2233,7 +2365,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -2245,56 +2377,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>301</v>
+      <c r="B28" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>305</v>
+      <c r="B29" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -2303,53 +2429,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>306</v>
+      <c r="B30" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
         <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>302</v>
+      <c r="B31" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -2357,16 +2480,16 @@
       <c r="H31" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
+      <c r="B32" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2378,10 +2501,10 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -2390,12 +2513,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>303</v>
+      <c r="B33" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -2407,538 +2530,681 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>304</v>
+      <c r="B34" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
-        <v>20</v>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C15" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>90</v>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>91</v>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>92</v>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>93</v>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>94</v>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>95</v>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>97</v>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>90</v>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>91</v>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>92</v>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>343</v>
+      <c r="C43" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2948,20 +3214,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2980,32 +3246,32 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3013,10 +3279,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3024,21 +3290,21 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3046,10 +3312,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3057,43 +3323,43 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3101,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3112,76 +3378,76 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3189,10 +3455,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3200,1756 +3466,2108 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
         <v>99</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
         <v>121</v>
       </c>
-      <c r="C74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B149" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>100</v>
+      </c>
+      <c r="C160" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>44</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B169" t="s">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="C169" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>44</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B170" t="s">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="C170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>44</v>
       </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>44</v>
       </c>
-      <c r="B78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>44</v>
       </c>
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="B173" t="s">
+        <v>100</v>
+      </c>
+      <c r="C173" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>44</v>
       </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="B174" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>44</v>
+      </c>
+      <c r="B176" t="s">
+        <v>103</v>
+      </c>
+      <c r="C176" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" t="s">
+        <v>104</v>
+      </c>
+      <c r="C177" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" t="s">
+        <v>105</v>
+      </c>
+      <c r="C178" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" t="s">
+        <v>107</v>
+      </c>
+      <c r="C179" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C181" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
         <v>11</v>
       </c>
-      <c r="C82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C182" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
         <v>99</v>
       </c>
-      <c r="C91" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C184" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
         <v>100</v>
       </c>
-      <c r="C92" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C185" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
         <v>101</v>
       </c>
-      <c r="C93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C186" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
         <v>102</v>
       </c>
-      <c r="C94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C187" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" t="s">
         <v>103</v>
       </c>
-      <c r="C95" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C188" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
         <v>104</v>
       </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C189" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
         <v>105</v>
       </c>
-      <c r="C97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C190" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
         <v>107</v>
       </c>
-      <c r="C99" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C191" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
         <v>108</v>
       </c>
-      <c r="C100" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C192" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
         <v>109</v>
       </c>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C193" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
         <v>110</v>
       </c>
-      <c r="C102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C194" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" t="s">
         <v>111</v>
       </c>
-      <c r="C103" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C195" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" t="s">
         <v>112</v>
       </c>
-      <c r="C104" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C196" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" t="s">
         <v>113</v>
       </c>
-      <c r="C105" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C197" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" t="s">
         <v>114</v>
       </c>
-      <c r="C106" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C198" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" t="s">
         <v>115</v>
       </c>
-      <c r="C107" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C199" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" t="s">
+        <v>117</v>
+      </c>
+      <c r="C201" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s">
+        <v>118</v>
+      </c>
+      <c r="C202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>29</v>
+      </c>
+      <c r="B204" t="s">
         <v>98</v>
       </c>
-      <c r="C108" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C204" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" t="s">
+        <v>98</v>
+      </c>
+      <c r="C206" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" t="s">
+        <v>99</v>
+      </c>
+      <c r="C207" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" t="s">
+        <v>100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>51</v>
+      </c>
+      <c r="B209" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>50</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C209" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>50</v>
-      </c>
-      <c r="B111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="C210" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>51</v>
       </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="B211" t="s">
+        <v>98</v>
+      </c>
+      <c r="C211" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>34</v>
+      </c>
+      <c r="B212" t="s">
         <v>11</v>
       </c>
-      <c r="C115" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>43</v>
-      </c>
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C120" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>39</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>39</v>
-      </c>
-      <c r="B123" t="s">
-        <v>90</v>
-      </c>
-      <c r="C123" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>39</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>39</v>
-      </c>
-      <c r="B125" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>39</v>
-      </c>
-      <c r="B126" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>40</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>40</v>
-      </c>
-      <c r="B130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C130" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>40</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>40</v>
-      </c>
-      <c r="B132" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B133" t="s">
-        <v>94</v>
-      </c>
-      <c r="C133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>41</v>
-      </c>
-      <c r="B137" t="s">
-        <v>90</v>
-      </c>
-      <c r="C137" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" t="s">
-        <v>91</v>
-      </c>
-      <c r="C138" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>41</v>
-      </c>
-      <c r="B139" t="s">
-        <v>92</v>
-      </c>
-      <c r="C139" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>42</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>42</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>42</v>
-      </c>
-      <c r="B142" t="s">
-        <v>90</v>
-      </c>
-      <c r="C142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>42</v>
-      </c>
-      <c r="B143" t="s">
-        <v>91</v>
-      </c>
-      <c r="C143" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>42</v>
-      </c>
-      <c r="B144" t="s">
-        <v>92</v>
-      </c>
-      <c r="C144" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>42</v>
-      </c>
-      <c r="B145" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>42</v>
-      </c>
-      <c r="B146" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>42</v>
-      </c>
-      <c r="B147" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>42</v>
-      </c>
-      <c r="B148" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>42</v>
-      </c>
-      <c r="B149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C149" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>42</v>
-      </c>
-      <c r="B150" t="s">
-        <v>99</v>
-      </c>
-      <c r="C150" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>42</v>
-      </c>
-      <c r="B151" t="s">
-        <v>100</v>
-      </c>
-      <c r="C151" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>46</v>
-      </c>
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>46</v>
-      </c>
-      <c r="B154" t="s">
-        <v>90</v>
-      </c>
-      <c r="C154" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>46</v>
-      </c>
-      <c r="B155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" t="s">
-        <v>92</v>
-      </c>
-      <c r="C156" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>46</v>
-      </c>
-      <c r="B157" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>46</v>
-      </c>
-      <c r="B159" t="s">
-        <v>95</v>
-      </c>
-      <c r="C159" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" t="s">
-        <v>96</v>
-      </c>
-      <c r="C160" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" t="s">
-        <v>97</v>
-      </c>
-      <c r="C161" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>46</v>
-      </c>
-      <c r="B162" t="s">
-        <v>99</v>
-      </c>
-      <c r="C162" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" t="s">
-        <v>100</v>
-      </c>
-      <c r="C163" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>46</v>
-      </c>
-      <c r="B164" t="s">
-        <v>101</v>
-      </c>
-      <c r="C164" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>46</v>
-      </c>
-      <c r="B165" t="s">
-        <v>102</v>
-      </c>
-      <c r="C165" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>46</v>
-      </c>
-      <c r="B166" t="s">
-        <v>103</v>
-      </c>
-      <c r="C166" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>46</v>
-      </c>
-      <c r="B167" t="s">
-        <v>104</v>
-      </c>
-      <c r="C167" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>46</v>
-      </c>
-      <c r="B168" t="s">
-        <v>105</v>
-      </c>
-      <c r="C168" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>46</v>
-      </c>
-      <c r="B169" t="s">
-        <v>106</v>
-      </c>
-      <c r="C169" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170" t="s">
-        <v>107</v>
-      </c>
-      <c r="C170" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171" t="s">
-        <v>108</v>
-      </c>
-      <c r="C171" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172" t="s">
-        <v>109</v>
-      </c>
-      <c r="C172" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173" t="s">
-        <v>110</v>
-      </c>
-      <c r="C173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>29</v>
-      </c>
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>29</v>
-      </c>
-      <c r="B175" t="s">
-        <v>90</v>
-      </c>
-      <c r="C175" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>24</v>
-      </c>
-      <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>24</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>24</v>
-      </c>
-      <c r="B178" t="s">
-        <v>91</v>
-      </c>
-      <c r="C178" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>24</v>
-      </c>
-      <c r="B179" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="C212" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>34</v>
       </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>34</v>
-      </c>
-      <c r="B181" t="s">
-        <v>90</v>
-      </c>
-      <c r="C181" t="s">
-        <v>280</v>
+      <c r="B213" t="s">
+        <v>98</v>
+      </c>
+      <c r="C213" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/iecodebook_chapter1.xlsx
+++ b/iecodebook_chapter1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50913F5-DE0F-44B5-8AD7-BAC6560110FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E4D5A-4AE0-44F5-A36A-924148A33BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2668,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3216,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
